--- a/DAGroup/notebooks/generated_data/pns_data_models/test_metrics.xlsx
+++ b/DAGroup/notebooks/generated_data/pns_data_models/test_metrics.xlsx
@@ -500,34 +500,34 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6576205198671705</v>
+        <v>0.6574201305393336</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1925541653951785</v>
+        <v>0.1924513915364087</v>
       </c>
       <c r="E2" t="n">
         <v>0.6471794871794871</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2968015051740358</v>
+        <v>0.296679400528945</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7139714670051096</v>
+        <v>0.7139790935411585</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6533431694722017</v>
+        <v>0.6530078465562337</v>
       </c>
       <c r="I2" t="n">
-        <v>0.184872471416007</v>
+        <v>0.1849315068493151</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6626733921815889</v>
+        <v>0.6639344262295082</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2890936597441893</v>
+        <v>0.2892857142857143</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7157021924957827</v>
+        <v>0.7156744639422338</v>
       </c>
     </row>
     <row r="3">
@@ -540,34 +540,34 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.626703309286614</v>
+        <v>0.6264456658651093</v>
       </c>
       <c r="D3" t="n">
-        <v>0.181577480490524</v>
+        <v>0.1814636863728153</v>
       </c>
       <c r="E3" t="n">
         <v>0.6682051282051282</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2855577470962086</v>
+        <v>0.2854170089261267</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7010686528711469</v>
+        <v>0.6995266135535857</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6198779424585876</v>
+        <v>0.6232311716182684</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1690985732814527</v>
+        <v>0.172939649578196</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6576292559899117</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2690224400309518</v>
+        <v>0.2750967741935484</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6932692011952617</v>
+        <v>0.6956156708914069</v>
       </c>
     </row>
     <row r="4">
@@ -580,34 +580,34 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6027997251803504</v>
+        <v>0.5980762624527654</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1792398224966236</v>
+        <v>0.1771934292627022</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7146153846153847</v>
+        <v>0.7135897435897436</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2865957118617924</v>
+        <v>0.2838926859124757</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7121495305094494</v>
+        <v>0.7095110630217939</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5947957883441755</v>
+        <v>0.5917108175172692</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1690433749257279</v>
+        <v>0.1689705882352941</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7175283732660782</v>
+        <v>0.7244640605296343</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2736234671796105</v>
+        <v>0.2740281421416647</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7066935829218608</v>
+        <v>0.7055389205264639</v>
       </c>
     </row>
   </sheetData>

--- a/DAGroup/notebooks/generated_data/pns_data_models/test_metrics.xlsx
+++ b/DAGroup/notebooks/generated_data/pns_data_models/test_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,14 +434,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>exp</t>
+          <t>accuracy_train</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>accuracy_train</t>
+          <t>accuracy_test</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -451,163 +456,209 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>precision_test</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>recall_train</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>recall_test</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>f1_train</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>f1_test</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>auc_train</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy_test</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>precision_test</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>recall_test</t>
-        </is>
-      </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>f1_test</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>auc_test</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Logistic Regression</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Logistic Regression</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6574201305393336</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1924513915364087</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.6471794871794871</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.296679400528945</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.7139790935411585</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.6530078465562337</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.1849315068493151</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6639344262295082</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.2892857142857143</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.7156744639422338</v>
+          <t>65.74%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>65.30%</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.25%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>18.49%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>64.72%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>66.39%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>29.67%</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>28.93%</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>71.40%</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>71.57%</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Decision Tree</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Decision Tree</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6264456658651093</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1814636863728153</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.6682051282051282</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.2854170089261267</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.6995266135535857</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6232311716182684</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.172939649578196</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6721311475409836</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.2750967741935484</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.6956156708914069</v>
+          <t>62.64%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>62.32%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.15%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>17.29%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>66.82%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>67.21%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>28.54%</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>27.51%</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>69.95%</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>69.56%</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5980762624527654</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1771934292627022</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.7135897435897436</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2838926859124757</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.7095110630217939</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5917108175172692</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1689705882352941</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7244640605296343</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.2740281421416647</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.7055389205264639</v>
+          <t>59.81%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>59.17%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.72%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>16.90%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>71.36%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>72.45%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>28.39%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>27.40%</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>70.95%</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>70.55%</t>
+        </is>
       </c>
     </row>
   </sheetData>
